--- a/EmbedFire_STM32H750XB/STM32H750X_CORE_引脚分布.xlsx
+++ b/EmbedFire_STM32H750XB/STM32H750X_CORE_引脚分布.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3.git\1.Github\Bootloader\EmbedFire_STM32H750XB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3.git\1.Github\ThreadX_H750\EmbedFire_STM32H750XB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5FEFB-A138-45C9-BC71-2EDD5777DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC05356-0457-4DFE-84F6-B230DFE8B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PG9/可选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,6 +936,11 @@
   </si>
   <si>
     <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY
+默认外部下拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1539,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C5" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1559,75 +1560,75 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>27</v>
+      <c r="A3" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
@@ -1637,24 +1638,24 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,24 +1668,24 @@
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,29 +1698,29 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -1729,24 +1730,24 @@
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,24 +1760,24 @@
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,24 +1790,24 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,24 +1820,24 @@
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,24 +1850,24 @@
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,29 +1880,29 @@
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1911,24 +1912,24 @@
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,24 +1942,24 @@
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,28 +1968,28 @@
         <v>22</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,527 +2002,527 @@
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="17"/>
       <c r="J26" s="33"/>
       <c r="K26" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="17"/>
       <c r="J27" s="33"/>
       <c r="K27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="17"/>
       <c r="J28" s="33"/>
       <c r="K28" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="17"/>
       <c r="J29" s="33"/>
       <c r="K29" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="17"/>
       <c r="J30" s="33"/>
       <c r="K30" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="17"/>
       <c r="J31" s="33"/>
       <c r="K31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="17"/>
       <c r="J32" s="33"/>
       <c r="K32" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="17"/>
       <c r="G33" s="17"/>
       <c r="J33" s="33"/>
       <c r="K33" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="19"/>
       <c r="G34" s="19"/>
@@ -2529,23 +2530,23 @@
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" s="19"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D36" s="19"/>
       <c r="G36" s="19"/>
@@ -2553,10 +2554,10 @@
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D37" s="19"/>
       <c r="G37" s="19"/>
@@ -2575,10 +2576,10 @@
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" s="19"/>
       <c r="G39" s="19"/>
@@ -2586,10 +2587,10 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">

--- a/EmbedFire_STM32H750XB/STM32H750X_CORE_引脚分布.xlsx
+++ b/EmbedFire_STM32H750XB/STM32H750X_CORE_引脚分布.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3.git\1.Github\ThreadX_H750\EmbedFire_STM32H750XB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC05356-0457-4DFE-84F6-B230DFE8B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AFBC5-27C0-4E58-BA3C-E9802C0D0305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="核心板" sheetId="1" r:id="rId1"/>
+    <sheet name="底板" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="280">
   <si>
     <t>PB8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +942,104 @@
   <si>
     <t>KEY
 默认外部下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDIO_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDIO_D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDIO_CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDIO_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDIO_D0</t>
+  </si>
+  <si>
+    <t>SDIO_D1</t>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD Card
+需要拉低PC2，不能和WIFI模块共用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI
+不能和SD Card模块共用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL_REG_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL_HOST_WAKE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,7 +1638,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A3:C5"/>
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2618,4 +2717,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45FDD07-1E4B-4583-85A5-5B5A16038384}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>